--- a/scimagojr/scimagojr_1997.xlsx
+++ b/scimagojr/scimagojr_1997.xlsx
@@ -305,12 +305,12 @@
     <t>Uruguay</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -332,12 +332,12 @@
     <t>Moldova</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -407,18 +407,18 @@
     <t>Niger</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -443,36 +443,36 @@
     <t>Albania</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Fiji</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>Palestine</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -485,51 +485,51 @@
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -539,36 +539,36 @@
     <t>Myanmar</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>Bermuda</t>
   </si>
   <si>
+    <t>Democratic Republic Congo</t>
+  </si>
+  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
@@ -581,72 +581,72 @@
     <t>Djibouti</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Vanuatu</t>
   </si>
   <si>
+    <t>Samoa</t>
+  </si>
+  <si>
     <t>Haïti</t>
   </si>
   <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Virgin Islands (U.S.)</t>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Seychelles</t>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
@@ -656,79 +656,79 @@
     <t>Aruba</t>
   </si>
   <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Andorra</t>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
   </si>
   <si>
     <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Kiribati</t>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
   </si>
 </sst>
 </file>
@@ -872,22 +872,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>361418</v>
+        <v>363055</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>350856</v>
+        <v>352700</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>15641404</v>
+        <v>16663090</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7019228</v>
+        <v>7357422</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>43.28</v>
+        <v>45.9</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -901,22 +901,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>97123</v>
+        <v>97491</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>96264</v>
+        <v>96665</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2237082</v>
+        <v>2360299</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>592650</v>
+        <v>608609</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>23.03</v>
+        <v>24.21</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -930,22 +930,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>96665</v>
+        <v>96990</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>91589</v>
+        <v>91943</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3579312</v>
+        <v>3818434</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>769618</v>
+        <v>802779</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>37.03</v>
+        <v>39.37</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -959,22 +959,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>84939</v>
+        <v>85156</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>83621</v>
+        <v>83876</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2655376</v>
+        <v>2832229</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>611495</v>
+        <v>631564</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>31.26</v>
+        <v>33.26</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -988,22 +988,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>60838</v>
+        <v>61085</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>59652</v>
+        <v>59905</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1948221</v>
+        <v>2060757</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>390379</v>
+        <v>402091</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>32.02</v>
+        <v>33.74</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1017,22 +1017,22 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>43833</v>
+        <v>43998</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>42821</v>
+        <v>43007</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1765746</v>
+        <v>1886050</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>288781</v>
+        <v>300233</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>40.28</v>
+        <v>42.87</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1046,22 +1046,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>41806</v>
+        <v>41893</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>40868</v>
+        <v>40972</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1156400</v>
+        <v>1222663</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>238688</v>
+        <v>247504</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>27.66</v>
+        <v>29.19</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1075,22 +1075,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>36185</v>
+        <v>36162</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>36085</v>
+        <v>36074</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>377640</v>
+        <v>401657</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>156756</v>
+        <v>167147</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>10.44</v>
+        <v>11.11</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1104,22 +1104,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>33337</v>
+        <v>33377</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>33274</v>
+        <v>33315</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>369338</v>
+        <v>392762</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>107838</v>
+        <v>112879</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11.08</v>
+        <v>11.77</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1133,22 +1133,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>27568</v>
+        <v>27624</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>26859</v>
+        <v>26921</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>732665</v>
+        <v>777447</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>164785</v>
+        <v>169967</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>26.58</v>
+        <v>28.14</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1162,22 +1162,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>26671</v>
+        <v>26738</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>25801</v>
+        <v>25887</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>914522</v>
+        <v>979976</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>171380</v>
+        <v>178722</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>34.29</v>
+        <v>36.65</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1191,22 +1191,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24101</v>
+        <v>24206</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>23547</v>
+        <v>23644</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1062519</v>
+        <v>1133665</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>143148</v>
+        <v>147364</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>44.09</v>
+        <v>46.83</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1220,22 +1220,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22514</v>
+        <v>22513</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>22121</v>
+        <v>22127</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>346303</v>
+        <v>371217</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>118685</v>
+        <v>127104</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15.38</v>
+        <v>16.49</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1249,22 +1249,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>18330</v>
+        <v>18366</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>17634</v>
+        <v>17690</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>748354</v>
+        <v>795411</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>103633</v>
+        <v>106353</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>40.83</v>
+        <v>43.31</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1278,22 +1278,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>16824</v>
+        <v>16872</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>16484</v>
+        <v>16545</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>873530</v>
+        <v>955444</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>91424</v>
+        <v>94457</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>51.92</v>
+        <v>56.63</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1307,22 +1307,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>13142</v>
+        <v>13192</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>13080</v>
+        <v>13134</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>245806</v>
+        <v>260713</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>42070</v>
+        <v>43248</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>18.7</v>
+        <v>19.76</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1336,22 +1336,22 @@
         <v>21</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>12667</v>
+        <v>12673</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>12590</v>
+        <v>12600</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>190652</v>
+        <v>201977</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>50377</v>
+        <v>51783</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>15.05</v>
+        <v>15.94</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1365,22 +1365,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>12337</v>
+        <v>12377</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>12063</v>
+        <v>12104</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>434182</v>
+        <v>461574</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>50365</v>
+        <v>51791</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>35.19</v>
+        <v>37.29</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1394,22 +1394,22 @@
         <v>12</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>11988</v>
+        <v>12018</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>11888</v>
+        <v>11925</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>242858</v>
+        <v>257229</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>43227</v>
+        <v>44119</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>20.26</v>
+        <v>21.4</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1423,22 +1423,22 @@
         <v>34</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>11390</v>
+        <v>11417</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>11158</v>
+        <v>11186</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>426332</v>
+        <v>455538</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>50652</v>
+        <v>52301</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>37.43</v>
+        <v>39.9</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1452,22 +1452,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>11345</v>
+        <v>11362</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>11246</v>
+        <v>11270</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>227546</v>
+        <v>241749</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>69337</v>
+        <v>72394</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>20.06</v>
+        <v>21.28</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1481,22 +1481,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>9475</v>
+        <v>9499</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9316</v>
+        <v>9342</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>395786</v>
+        <v>421484</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>48904</v>
+        <v>50431</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>41.77</v>
+        <v>44.37</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1510,22 +1510,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8713</v>
+        <v>8745</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>8537</v>
+        <v>8574</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>339277</v>
+        <v>359910</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>45113</v>
+        <v>46244</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>38.94</v>
+        <v>41.16</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1539,22 +1539,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>8449</v>
+        <v>8472</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8272</v>
+        <v>8296</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>268967</v>
+        <v>285692</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>32743</v>
+        <v>33728</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>31.83</v>
+        <v>33.72</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1568,22 +1568,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6632</v>
+        <v>6657</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6565</v>
+        <v>6594</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>228676</v>
+        <v>243511</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>32444</v>
+        <v>33560</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>34.48</v>
+        <v>36.58</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1597,22 +1597,22 @@
         <v>21</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>6333</v>
+        <v>6339</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>6322</v>
+        <v>6329</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>43316</v>
+        <v>45593</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>11943</v>
+        <v>12464</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>6.84</v>
+        <v>7.19</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1626,22 +1626,22 @@
         <v>34</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>6239</v>
+        <v>6256</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>6030</v>
+        <v>6043</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>102778</v>
+        <v>110187</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>26754</v>
+        <v>27954</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>16.47</v>
+        <v>17.61</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1655,22 +1655,22 @@
         <v>21</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5879</v>
+        <v>5887</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>5846</v>
+        <v>5853</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>93393</v>
+        <v>98705</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>20860</v>
+        <v>21318</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>15.89</v>
+        <v>16.77</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1684,22 +1684,22 @@
         <v>12</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5743</v>
+        <v>5749</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>5625</v>
+        <v>5634</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>148304</v>
+        <v>158371</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>19419</v>
+        <v>19921</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>25.82</v>
+        <v>27.55</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1713,22 +1713,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5626</v>
+        <v>5655</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>5536</v>
+        <v>5565</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>135820</v>
+        <v>144715</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>21510</v>
+        <v>22298</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>24.14</v>
+        <v>25.59</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1742,22 +1742,22 @@
         <v>36</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5518</v>
+        <v>5531</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5451</v>
+        <v>5461</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>124358</v>
+        <v>132497</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>23892</v>
+        <v>25024</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>22.54</v>
+        <v>23.96</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1771,22 +1771,22 @@
         <v>24</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5357</v>
+        <v>5361</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>5224</v>
+        <v>5232</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>188442</v>
+        <v>201948</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>25934</v>
+        <v>26921</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>35.18</v>
+        <v>37.67</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1800,22 +1800,22 @@
         <v>21</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5204</v>
+        <v>5216</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>103841</v>
+        <v>110416</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>17143</v>
+        <v>17662</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>19.65</v>
+        <v>20.85</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1829,22 +1829,22 @@
         <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5008</v>
+        <v>5063</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>4832</v>
+        <v>4879</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>106711</v>
+        <v>115562</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>21854</v>
+        <v>23154</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>21.31</v>
+        <v>22.82</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1858,22 +1858,22 @@
         <v>36</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4865</v>
+        <v>4890</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>4790</v>
+        <v>4812</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>119007</v>
+        <v>128956</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>23124</v>
+        <v>24159</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>24.46</v>
+        <v>26.37</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1887,22 +1887,22 @@
         <v>12</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3949</v>
+        <v>3962</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>3902</v>
+        <v>3918</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>93472</v>
+        <v>100638</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>9448</v>
+        <v>9751</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>23.67</v>
+        <v>25.4</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1916,22 +1916,22 @@
         <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3364</v>
+        <v>3376</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3332</v>
+        <v>3347</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>80345</v>
+        <v>86135</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>13879</v>
+        <v>14430</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>23.88</v>
+        <v>25.51</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1945,22 +1945,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3062</v>
+        <v>3078</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2957</v>
+        <v>2974</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>106383</v>
+        <v>112740</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9364</v>
+        <v>9642</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>34.74</v>
+        <v>36.63</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1974,22 +1974,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>45523</v>
+        <v>49099</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>9308</v>
+        <v>9935</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>15.41</v>
+        <v>16.59</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2003,22 +2003,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>29903</v>
+        <v>31657</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>5760</v>
+        <v>5898</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>11.22</v>
+        <v>11.87</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2035,19 +2035,19 @@
         <v>2488</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>39439</v>
+        <v>41778</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>7373</v>
+        <v>7488</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>15.85</v>
+        <v>16.79</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2061,22 +2061,22 @@
         <v>21</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>32236</v>
+        <v>34432</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4627</v>
+        <v>4800</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>14.1</v>
+        <v>15.01</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2090,22 +2090,22 @@
         <v>34</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2075</v>
+        <v>2080</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>31410</v>
+        <v>33917</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4081</v>
+        <v>4360</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>14.77</v>
+        <v>15.92</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2119,22 +2119,22 @@
         <v>36</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>49395</v>
+        <v>52143</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>7913</v>
+        <v>8194</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>24.59</v>
+        <v>25.93</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2151,19 +2151,19 @@
         <v>1734</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>20600</v>
+        <v>21654</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>4614</v>
+        <v>4751</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>11.88</v>
+        <v>12.49</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2177,22 +2177,22 @@
         <v>21</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1611</v>
+        <v>1621</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1600</v>
+        <v>1610</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>30771</v>
+        <v>32719</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5218</v>
+        <v>5345</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>19.1</v>
+        <v>20.18</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2206,22 +2206,22 @@
         <v>21</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>12560</v>
+        <v>13311</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>2470</v>
+        <v>2536</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>8.52</v>
+        <v>9.01</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2235,22 +2235,22 @@
         <v>12</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1435</v>
+        <v>1466</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>36849</v>
+        <v>39440</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>5593</v>
+        <v>5937</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>25.68</v>
+        <v>26.9</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2267,19 +2267,19 @@
         <v>1270</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>23522</v>
+        <v>25335</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>3091</v>
+        <v>3169</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>18.52</v>
+        <v>19.95</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2293,22 +2293,22 @@
         <v>12</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>20241</v>
+        <v>21857</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3963</v>
+        <v>4208</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>16.54</v>
+        <v>17.83</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2322,22 +2322,22 @@
         <v>50</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>16655</v>
+        <v>17975</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>3896</v>
+        <v>4168</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>13.69</v>
+        <v>14.76</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2351,22 +2351,22 @@
         <v>34</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>17851</v>
+        <v>18995</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>6072</v>
+        <v>6277</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>16.51</v>
+        <v>17.54</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2380,22 +2380,22 @@
         <v>21</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>8415</v>
+        <v>8895</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>7.87</v>
+        <v>8.29</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2409,22 +2409,22 @@
         <v>12</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>13485</v>
+        <v>14628</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3427</v>
+        <v>3662</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>13.29</v>
+        <v>14.37</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2438,22 +2438,22 @@
         <v>36</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>8026</v>
+        <v>8395</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2038</v>
+        <v>2060</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>8.46</v>
+        <v>8.86</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2467,22 +2467,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>13505</v>
+        <v>14472</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>2587</v>
+        <v>2857</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>14.57</v>
+        <v>15.59</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2502,16 +2502,16 @@
         <v>675</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>28576</v>
+        <v>31313</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3058</v>
+        <v>3207</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>41.35</v>
+        <v>45.32</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2525,22 +2525,22 @@
         <v>36</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>16605</v>
+        <v>17670</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2446</v>
+        <v>2598</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>24.53</v>
+        <v>26.06</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2554,22 +2554,22 @@
         <v>34</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>11611</v>
+        <v>12560</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1360</v>
+        <v>1402</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>18.26</v>
+        <v>19.69</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2589,16 +2589,16 @@
         <v>627</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>8319</v>
+        <v>8753</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1747</v>
+        <v>1788</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>13.2</v>
+        <v>13.89</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2612,22 +2612,22 @@
         <v>12</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>14859</v>
+        <v>16038</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1557</v>
+        <v>1740</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>23.74</v>
+        <v>25.58</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2641,22 +2641,22 @@
         <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>12280</v>
+        <v>13068</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1872</v>
+        <v>1976</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>19.77</v>
+        <v>21.01</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2670,22 +2670,22 @@
         <v>21</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>16669</v>
+        <v>17584</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2695</v>
+        <v>2771</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>27.19</v>
+        <v>28.64</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2699,22 +2699,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>8655</v>
+        <v>9335</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1449</v>
+        <v>1552</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>15.65</v>
+        <v>16.94</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2728,22 +2728,22 @@
         <v>34</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>8939</v>
+        <v>9659</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1037</v>
+        <v>1096</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>16.9</v>
+        <v>18.22</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2763,16 +2763,16 @@
         <v>509</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>20647</v>
+        <v>22279</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1796</v>
+        <v>1867</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>40.33</v>
+        <v>43.51</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2792,16 +2792,16 @@
         <v>509</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>6509</v>
+        <v>6857</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1063</v>
+        <v>1085</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>12.76</v>
+        <v>13.45</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2821,16 +2821,16 @@
         <v>491</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>15347</v>
+        <v>16297</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>31.07</v>
+        <v>32.99</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2850,16 +2850,16 @@
         <v>462</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>2303</v>
+        <v>2471</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>4.98</v>
+        <v>5.35</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2873,22 +2873,22 @@
         <v>34</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>8199</v>
+        <v>8985</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>673</v>
+        <v>731</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>20.1</v>
+        <v>21.97</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2908,16 +2908,16 @@
         <v>404</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>5428</v>
+        <v>5748</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>871</v>
+        <v>906</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>13.44</v>
+        <v>14.23</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2937,16 +2937,16 @@
         <v>369</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>4634</v>
+        <v>4871</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>12.01</v>
+        <v>12.62</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2966,16 +2966,16 @@
         <v>374</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>7373</v>
+        <v>8018</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>737</v>
+        <v>793</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>19.25</v>
+        <v>20.93</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2989,22 +2989,22 @@
         <v>34</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>9744</v>
+        <v>11365</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>27.45</v>
+        <v>31.66</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3018,22 +3018,22 @@
         <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>348</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>18231</v>
+        <v>19263</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1633</v>
+        <v>1729</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>51.5</v>
+        <v>54.57</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3053,16 +3053,16 @@
         <v>343</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>4850</v>
+        <v>5090</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1008</v>
+        <v>1035</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3082,16 +3082,16 @@
         <v>336</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>5913</v>
+        <v>6314</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>984</v>
+        <v>1052</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>17.34</v>
+        <v>18.52</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3105,22 +3105,22 @@
         <v>36</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>332</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>10050</v>
+        <v>10601</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1169</v>
+        <v>1206</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>29.82</v>
+        <v>31.55</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3131,25 +3131,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>288</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>5247</v>
+        <v>9052</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>456</v>
+        <v>1005</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>18.22</v>
+        <v>31.43</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3160,25 +3160,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>284</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>8488</v>
+        <v>5688</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>971</v>
+        <v>479</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>29.78</v>
+        <v>19.75</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3198,16 +3198,16 @@
         <v>262</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>9833</v>
+        <v>10401</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1115</v>
+        <v>1163</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>36.55</v>
+        <v>38.67</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3227,16 +3227,16 @@
         <v>254</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>6034</v>
+        <v>6552</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1174</v>
+        <v>1287</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>23.21</v>
+        <v>25.2</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3256,16 +3256,16 @@
         <v>247</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1215</v>
+        <v>1298</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>4.92</v>
+        <v>5.26</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3285,16 +3285,16 @@
         <v>225</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>4719</v>
+        <v>5191</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>20.61</v>
+        <v>22.67</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3308,22 +3308,22 @@
         <v>36</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>5590</v>
+        <v>6027</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>613</v>
+        <v>674</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>24.84</v>
+        <v>26.67</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3343,16 +3343,16 @@
         <v>216</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>5193</v>
+        <v>5600</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1014</v>
+        <v>1109</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>23.29</v>
+        <v>25.11</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3372,16 +3372,16 @@
         <v>220</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1945</v>
+        <v>2018</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>8.84</v>
+        <v>9.17</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3392,25 +3392,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>5297</v>
+        <v>5517</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>657</v>
+        <v>443</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>24.99</v>
+        <v>25.66</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>146</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3421,25 +3421,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>4777</v>
+        <v>5658</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>395</v>
+        <v>681</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>23.08</v>
+        <v>26.69</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>254</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3459,16 +3459,16 @@
         <v>201</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1485</v>
+        <v>1598</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>7.35</v>
+        <v>7.91</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3488,16 +3488,16 @@
         <v>182</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>3452</v>
+        <v>3698</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>18.66</v>
+        <v>19.99</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3511,22 +3511,22 @@
         <v>34</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>3093</v>
+        <v>3412</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>16.81</v>
+        <v>18.44</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3546,16 +3546,16 @@
         <v>178</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>2535</v>
+        <v>2677</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>14.01</v>
+        <v>14.79</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3569,22 +3569,22 @@
         <v>50</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>5456</v>
+        <v>5805</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>32.28</v>
+        <v>34.15</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3598,22 +3598,22 @@
         <v>36</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>158</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3881</v>
+        <v>4143</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>23.52</v>
+        <v>25.26</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3633,16 +3633,16 @@
         <v>142</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3874</v>
+        <v>4102</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>27.09</v>
+        <v>28.69</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3659,19 +3659,19 @@
         <v>130</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2541</v>
+        <v>2796</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19.55</v>
+        <v>21.51</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3691,16 +3691,16 @@
         <v>120</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>2949</v>
+        <v>3116</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>23.59</v>
+        <v>24.93</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3720,16 +3720,16 @@
         <v>117</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>2877</v>
+        <v>3127</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>23.02</v>
+        <v>25.02</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3743,22 +3743,22 @@
         <v>50</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1965</v>
+        <v>2109</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>16.94</v>
+        <v>17.87</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3778,16 +3778,16 @@
         <v>113</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>2807</v>
+        <v>3046</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>24.41</v>
+        <v>26.49</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3807,16 +3807,16 @@
         <v>114</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>2383</v>
+        <v>2568</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>20.9</v>
+        <v>22.53</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3836,16 +3836,16 @@
         <v>103</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1468</v>
+        <v>1586</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>13.59</v>
+        <v>14.69</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3865,16 +3865,16 @@
         <v>105</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2406</v>
+        <v>2516</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>22.49</v>
+        <v>23.51</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3894,16 +3894,16 @@
         <v>105</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1147</v>
+        <v>1286</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>10.92</v>
+        <v>12.25</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3923,16 +3923,16 @@
         <v>100</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2227</v>
+        <v>2367</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>21.41</v>
+        <v>22.76</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3952,16 +3952,16 @@
         <v>93</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>2022</v>
+        <v>2134</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>21.06</v>
+        <v>22.23</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3981,16 +3981,16 @@
         <v>93</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2570</v>
+        <v>2727</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>27.05</v>
+        <v>28.71</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4004,22 +4004,22 @@
         <v>34</v>
       </c>
       <c r="D110" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E110" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E110" s="0" t="n">
-        <v>86</v>
-      </c>
       <c r="F110" s="0" t="n">
-        <v>1125</v>
+        <v>1248</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>12.93</v>
+        <v>14.18</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4039,16 +4039,16 @@
         <v>86</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>5106</v>
+        <v>5437</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>59.37</v>
+        <v>63.22</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4068,16 +4068,16 @@
         <v>80</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1707</v>
+        <v>1813</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>20.08</v>
+        <v>21.33</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4097,16 +4097,16 @@
         <v>76</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2452</v>
+        <v>2586</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>31.44</v>
+        <v>33.15</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4117,25 +4117,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D114" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E114" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E114" s="0" t="n">
-        <v>72</v>
-      </c>
       <c r="F114" s="0" t="n">
-        <v>958</v>
+        <v>2314</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>13.12</v>
+        <v>30.85</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>94</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4149,22 +4149,22 @@
         <v>50</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3471</v>
+        <v>1031</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>48.89</v>
+        <v>13.93</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4175,7 +4175,7 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>71</v>
@@ -4184,16 +4184,16 @@
         <v>69</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2109</v>
+        <v>2376</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>29.7</v>
+        <v>33.46</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4207,22 +4207,22 @@
         <v>50</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2197</v>
+        <v>3677</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>31.39</v>
+        <v>51.79</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4236,22 +4236,22 @@
         <v>34</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>745</v>
+        <v>805</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>11.46</v>
+        <v>12.01</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4271,16 +4271,16 @@
         <v>59</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1333</v>
+        <v>1415</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>21.85</v>
+        <v>23.2</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4300,16 +4300,16 @@
         <v>55</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>11.71</v>
+        <v>12.27</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4329,16 +4329,16 @@
         <v>56</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2264</v>
+        <v>2442</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>40.43</v>
+        <v>43.61</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4358,16 +4358,16 @@
         <v>55</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2677</v>
+        <v>2924</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>47.8</v>
+        <v>52.21</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4387,16 +4387,16 @@
         <v>55</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2579</v>
+        <v>2782</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>46.89</v>
+        <v>50.58</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4416,16 +4416,16 @@
         <v>53</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1030</v>
+        <v>1127</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>19.07</v>
+        <v>20.87</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4445,16 +4445,16 @@
         <v>52</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>10</v>
+        <v>10.47</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4465,25 +4465,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>49</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>890</v>
+        <v>697</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>17.8</v>
+        <v>13.67</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4500,19 +4500,19 @@
         <v>50</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1699</v>
+        <v>958</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>33.98</v>
+        <v>19.16</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4523,25 +4523,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>650</v>
+        <v>1792</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>13</v>
+        <v>35.84</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4561,16 +4561,16 @@
         <v>48</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1048</v>
+        <v>1095</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>21.39</v>
+        <v>22.35</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4590,16 +4590,16 @@
         <v>47</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4610,25 +4610,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>683</v>
+        <v>843</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>15.18</v>
+        <v>18.73</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4639,25 +4639,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>794</v>
+        <v>734</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>17.64</v>
+        <v>16.31</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4677,16 +4677,16 @@
         <v>45</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1618</v>
+        <v>1772</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>35.96</v>
+        <v>39.38</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4697,25 +4697,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>43</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1394</v>
+        <v>900</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>32.42</v>
+        <v>20.45</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4726,25 +4726,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>845</v>
+        <v>1461</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>20.61</v>
+        <v>33.98</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4764,16 +4764,16 @@
         <v>40</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1060</v>
+        <v>1118</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>25.85</v>
+        <v>27.27</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4793,16 +4793,16 @@
         <v>40</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>23.15</v>
+        <v>24.53</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4822,16 +4822,16 @@
         <v>39</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1058</v>
+        <v>1114</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>27.13</v>
+        <v>28.56</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4851,16 +4851,16 @@
         <v>37</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>18.26</v>
+        <v>19.64</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4871,25 +4871,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1199</v>
+        <v>791</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>33.31</v>
+        <v>21.97</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4900,25 +4900,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>34</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>752</v>
+        <v>1294</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>20.89</v>
+        <v>36.97</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4938,16 +4938,16 @@
         <v>32</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>829</v>
+        <v>895</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>52</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>25.91</v>
+        <v>27.97</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4958,7 +4958,7 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>30</v>
@@ -4967,16 +4967,16 @@
         <v>30</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>592</v>
+        <v>225</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>19.73</v>
+        <v>7.5</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4993,19 +4993,19 @@
         <v>30</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>639</v>
+        <v>986</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>21.3</v>
+        <v>32.87</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5022,19 +5022,19 @@
         <v>30</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>19.1</v>
+        <v>20.67</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5045,25 +5045,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E146" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>613</v>
+      </c>
+      <c r="G146" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F146" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>68</v>
-      </c>
       <c r="H146" s="0" t="n">
-        <v>7.03</v>
+        <v>20.43</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5080,19 +5080,19 @@
         <v>30</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>908</v>
+        <v>695</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>30.27</v>
+        <v>23.17</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5112,16 +5112,16 @@
         <v>28</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>8.07</v>
+        <v>8.52</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5141,16 +5141,16 @@
         <v>27</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>18.44</v>
+        <v>19.74</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5167,19 +5167,19 @@
         <v>26</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>624</v>
+        <v>748</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>24</v>
+        <v>28.77</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5190,7 +5190,7 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>26</v>
@@ -5199,16 +5199,16 @@
         <v>26</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>23.12</v>
+        <v>25.65</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5219,25 +5219,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>26.23</v>
+        <v>24.35</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5248,25 +5248,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>23</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>478</v>
+        <v>359</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>20.78</v>
+        <v>15.61</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5277,25 +5277,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>23</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>337</v>
+        <v>504</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>14.65</v>
+        <v>21.91</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5315,16 +5315,16 @@
         <v>18</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>25.39</v>
+        <v>26.5</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5344,16 +5344,16 @@
         <v>16</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>26.82</v>
+        <v>29.41</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5373,16 +5373,16 @@
         <v>16</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>26.06</v>
+        <v>27.29</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5393,25 +5393,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>786</v>
+        <v>411</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>52.4</v>
+        <v>27.4</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>178</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5431,16 +5431,16 @@
         <v>14</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>6.73</v>
+        <v>7.07</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5451,25 +5451,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>390</v>
+        <v>859</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>26</v>
+        <v>57.27</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>60</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5489,16 +5489,16 @@
         <v>12</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>104</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>40.36</v>
+        <v>42.36</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5515,19 +5515,19 @@
         <v>13</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>12.62</v>
+        <v>12.92</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5544,19 +5544,19 @@
         <v>13</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>11.54</v>
+        <v>13.46</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5576,16 +5576,16 @@
         <v>11</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>23.17</v>
+        <v>25.67</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5605,16 +5605,16 @@
         <v>12</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>44</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>22.58</v>
+        <v>23.33</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5625,7 +5625,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>12</v>
@@ -5634,16 +5634,16 @@
         <v>12</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>7.42</v>
+        <v>18.67</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5654,7 +5654,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>12</v>
@@ -5663,16 +5663,16 @@
         <v>12</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>17.33</v>
+        <v>7.75</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5692,16 +5692,16 @@
         <v>11</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>28.64</v>
+        <v>30.55</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5721,16 +5721,16 @@
         <v>11</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>33.09</v>
+        <v>35.64</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5750,16 +5750,16 @@
         <v>10</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>29.7</v>
+        <v>32</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5788,7 +5788,7 @@
         <v>5.1</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5799,25 +5799,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>13.78</v>
+        <v>20.22</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5828,7 +5828,7 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>9</v>
@@ -5837,16 +5837,16 @@
         <v>8</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>31.67</v>
+        <v>15.11</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5857,7 +5857,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>9</v>
@@ -5866,16 +5866,16 @@
         <v>9</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>398</v>
+        <v>187</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>44.22</v>
+        <v>20.78</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5886,25 +5886,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>19</v>
+        <v>34.22</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5915,7 +5915,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>9</v>
@@ -5924,16 +5924,16 @@
         <v>9</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>19.78</v>
+        <v>47.11</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5953,16 +5953,16 @@
         <v>7</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>25.63</v>
+        <v>26.88</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5973,25 +5973,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>19.29</v>
+        <v>38.14</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6002,25 +6002,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>36.43</v>
+        <v>45.14</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6031,7 +6031,7 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>7</v>
@@ -6040,16 +6040,16 @@
         <v>7</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>42.71</v>
+        <v>21.29</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6060,7 +6060,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>7</v>
@@ -6069,16 +6069,16 @@
         <v>7</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>20</v>
+        <v>21.29</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6089,7 +6089,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>6</v>
@@ -6098,16 +6098,16 @@
         <v>6</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>9.83</v>
+        <v>37.5</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6118,7 +6118,7 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>6</v>
@@ -6127,16 +6127,16 @@
         <v>6</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>8.83</v>
+        <v>13.5</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6156,16 +6156,16 @@
         <v>6</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>13</v>
+        <v>11.83</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6185,16 +6185,16 @@
         <v>6</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>50</v>
+        <v>8.83</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6205,7 +6205,7 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>6</v>
@@ -6214,16 +6214,16 @@
         <v>6</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>29.83</v>
+        <v>10</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6234,7 +6234,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>6</v>
@@ -6243,16 +6243,16 @@
         <v>6</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>36</v>
+        <v>53.17</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6263,25 +6263,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>49.2</v>
+        <v>31.83</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6301,16 +6301,16 @@
         <v>5</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>13.8</v>
+        <v>53.6</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6321,7 +6321,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>4</v>
@@ -6330,16 +6330,16 @@
         <v>4</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>16.75</v>
+        <v>3.75</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6350,7 +6350,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>4</v>
@@ -6359,16 +6359,16 @@
         <v>4</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>3.25</v>
+        <v>28</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6379,7 +6379,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>4</v>
@@ -6388,16 +6388,16 @@
         <v>4</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6408,7 +6408,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>4</v>
@@ -6417,16 +6417,16 @@
         <v>4</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6446,16 +6446,16 @@
         <v>4</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>35.25</v>
+        <v>38.25</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6469,22 +6469,22 @@
         <v>36</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>9</v>
+        <v>11.67</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6504,16 +6504,16 @@
         <v>3</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>30</v>
+        <v>30.33</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6524,7 +6524,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>3</v>
@@ -6533,16 +6533,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6553,7 +6553,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6562,13 +6562,13 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>24.33</v>
+        <v>39</v>
       </c>
       <c r="I198" s="0" t="n">
         <v>48</v>
@@ -6591,16 +6591,16 @@
         <v>2</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6620,16 +6620,16 @@
         <v>2</v>
       </c>
       <c r="F200" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="I200" s="0" t="n">
         <v>39</v>
-      </c>
-      <c r="G200" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H200" s="0" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I200" s="0" t="n">
-        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6640,7 +6640,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>2</v>
@@ -6649,16 +6649,16 @@
         <v>2</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6669,7 +6669,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
@@ -6678,16 +6678,16 @@
         <v>2</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6698,7 +6698,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6707,16 +6707,16 @@
         <v>2</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>6.5</v>
+        <v>22</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6727,7 +6727,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
@@ -6736,16 +6736,16 @@
         <v>2</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>8</v>
+        <v>85.5</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6756,7 +6756,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>2</v>
@@ -6765,16 +6765,16 @@
         <v>2</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>77.5</v>
+        <v>9.5</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6785,7 +6785,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>2</v>
@@ -6794,16 +6794,16 @@
         <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6823,16 +6823,16 @@
         <v>1</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6852,16 +6852,16 @@
         <v>1</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6881,16 +6881,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6901,7 +6901,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>0</v>
@@ -6959,25 +6959,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6988,7 +6988,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
@@ -6997,16 +6997,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7017,7 +7017,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7026,16 +7026,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7064,7 +7064,7 @@
         <v>7</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7084,16 +7084,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7104,13 +7104,13 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" s="0" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7142,16 +7142,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7162,25 +7162,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7200,16 +7200,16 @@
         <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7229,16 +7229,16 @@
         <v>1</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
